--- a/Data/New/Excel/Full_plain.xlsx
+++ b/Data/New/Excel/Full_plain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valedipalo/Desktop/RAGDATAFINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valedipalo/PycharmProjects/Bocconichatbot/Data/New/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B27016-0D9D-C54D-A8B2-BCF6EC0928C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A48E5AB-580C-3A44-A71F-D49FAA554718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" xr2:uid="{22C32FAB-E0C3-CD42-B51C-A6B240699A8F}"/>
   </bookViews>
@@ -3727,9 +3727,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3767,7 +3767,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3873,7 +3873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4015,7 +4015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4025,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEEA5E0-AD9C-8F40-995F-1A7BFF29C63B}">
   <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103:F211"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4198,7 +4198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
